--- a/Mapping.xlsx
+++ b/Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="643" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Response-Schema" sheetId="7" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="769">
   <si>
     <t>Attribute Label</t>
   </si>
@@ -2743,13 +2743,28 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Identifier_Source_System ?</t>
+      <t>Identifier_Source_System=sourceSystem (i.e. Sender)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+  </si>
+  <si>
+    <t>varchar(6)</t>
+  </si>
+  <si>
+    <t>varchar(3)</t>
   </si>
 </sst>
 </file>
@@ -2965,7 +2980,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3062,6 +3077,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3075,7 +3102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3286,7 +3313,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -3308,6 +3334,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3390,10 +3422,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3744,84 +3772,84 @@
       <c r="C2" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="118">
+      <c r="E2" s="123">
         <v>400</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="123" t="s">
         <v>724</v>
       </c>
-      <c r="G2" s="118" t="s">
+      <c r="G2" s="123" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="118">
+      <c r="E4" s="123">
         <v>404</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="123" t="s">
         <v>726</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="123" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="118">
+      <c r="E6" s="123">
         <v>405</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="123" t="s">
         <v>728</v>
       </c>
-      <c r="G6" s="118" t="s">
+      <c r="G6" s="123" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="118">
+      <c r="E8" s="123">
         <v>406</v>
       </c>
-      <c r="F8" s="118" t="s">
+      <c r="F8" s="123" t="s">
         <v>730</v>
       </c>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="123" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="118">
+      <c r="E10" s="123">
         <v>415</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="123" t="s">
         <v>732</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="123" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
@@ -3886,19 +3914,92 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>767</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3969,9 +4070,9 @@
   </sheetPr>
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3988,15 +4089,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
       <c r="D1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="109"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="22" t="s">
         <v>77</v>
       </c>
@@ -4025,7 +4126,7 @@
       <c r="B3" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="110"/>
+      <c r="E3" s="109"/>
       <c r="H3" s="20" t="s">
         <v>141</v>
       </c>
@@ -4037,7 +4138,7 @@
       <c r="B4" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="110"/>
+      <c r="E4" s="109"/>
       <c r="H4" s="20" t="s">
         <v>142</v>
       </c>
@@ -4055,18 +4156,18 @@
       <c r="D5" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="111"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119" t="s">
+      <c r="A6" s="124"/>
+      <c r="B6" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="20" t="s">
         <v>143</v>
       </c>
@@ -4075,13 +4176,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="119"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
       <c r="H7" t="s">
         <v>80</v>
       </c>
@@ -4090,13 +4191,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
       <c r="H8" t="s">
         <v>82</v>
       </c>
@@ -4105,7 +4206,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="110"/>
+      <c r="E9" s="109"/>
       <c r="H9" s="30" t="s">
         <v>73</v>
       </c>
@@ -4123,17 +4224,17 @@
       <c r="D10" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="114"/>
+      <c r="E10" s="113"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
       <c r="H11" t="s">
         <v>89</v>
       </c>
@@ -4142,45 +4243,45 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="24" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
       <c r="H13" s="24" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
       <c r="H14" s="24" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
       <c r="H15" s="24" t="s">
         <v>217</v>
       </c>
@@ -4189,21 +4290,21 @@
       <c r="B16" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="112"/>
+      <c r="E16" s="111"/>
     </row>
     <row r="17" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37" t="s">
         <v>281</v>
       </c>
       <c r="C17" s="38"/>
-      <c r="E17" s="147"/>
+      <c r="E17" s="111"/>
       <c r="G17" s="102" t="s">
         <v>91</v>
       </c>
       <c r="H17" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="I17" s="115" t="s">
+      <c r="I17" s="114" t="s">
         <v>763</v>
       </c>
     </row>
@@ -4217,7 +4318,7 @@
       <c r="C18" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="116"/>
+      <c r="E18" s="115"/>
       <c r="H18" t="s">
         <v>134</v>
       </c>
@@ -4229,7 +4330,7 @@
       <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="116"/>
+      <c r="E19" s="115"/>
       <c r="H19" t="s">
         <v>74</v>
       </c>
@@ -4241,7 +4342,7 @@
       <c r="C20" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="116"/>
+      <c r="E20" s="115"/>
       <c r="H20" t="s">
         <v>135</v>
       </c>
@@ -4253,7 +4354,7 @@
       <c r="C21" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="116"/>
+      <c r="E21" s="115"/>
       <c r="H21" t="s">
         <v>136</v>
       </c>
@@ -4265,7 +4366,7 @@
       <c r="C22" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="116"/>
+      <c r="E22" s="115"/>
       <c r="H22" t="s">
         <v>137</v>
       </c>
@@ -4277,7 +4378,7 @@
       <c r="C23" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="116"/>
+      <c r="E23" s="115"/>
       <c r="H23" s="24" t="s">
         <v>138</v>
       </c>
@@ -4310,7 +4411,7 @@
       <c r="C26" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="116"/>
+      <c r="E26" s="115"/>
       <c r="H26" s="24" t="s">
         <v>223</v>
       </c>
@@ -4319,7 +4420,7 @@
       <c r="C27" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="116"/>
+      <c r="E27" s="115"/>
       <c r="H27" s="24" t="s">
         <v>224</v>
       </c>
@@ -4331,7 +4432,7 @@
       <c r="C28" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="116"/>
+      <c r="E28" s="115"/>
       <c r="H28" t="s">
         <v>83</v>
       </c>
@@ -4343,7 +4444,7 @@
       <c r="C29" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="116"/>
+      <c r="E29" s="115"/>
       <c r="H29" t="s">
         <v>84</v>
       </c>
@@ -4355,7 +4456,7 @@
       <c r="C30" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="116"/>
+      <c r="E30" s="115"/>
       <c r="H30" t="s">
         <v>85</v>
       </c>
@@ -4367,7 +4468,7 @@
       <c r="C31" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="116"/>
+      <c r="E31" s="115"/>
       <c r="H31" t="s">
         <v>86</v>
       </c>
@@ -4379,7 +4480,7 @@
       <c r="C32" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="116"/>
+      <c r="E32" s="115"/>
       <c r="H32" t="s">
         <v>87</v>
       </c>
@@ -4391,7 +4492,7 @@
       <c r="C33" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="116"/>
+      <c r="E33" s="115"/>
       <c r="H33" s="24" t="s">
         <v>111</v>
       </c>
@@ -4424,7 +4525,7 @@
       <c r="C36" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="116"/>
+      <c r="E36" s="115"/>
       <c r="H36" s="24" t="s">
         <v>227</v>
       </c>
@@ -4433,7 +4534,7 @@
       <c r="C37" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="116"/>
+      <c r="E37" s="115"/>
       <c r="H37" s="24" t="s">
         <v>228</v>
       </c>
@@ -4442,7 +4543,7 @@
       <c r="A38" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="116"/>
+      <c r="E38" s="115"/>
       <c r="H38" s="24" t="s">
         <v>201</v>
       </c>
@@ -4454,13 +4555,13 @@
       <c r="D39" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="E39" s="117"/>
+      <c r="E39" s="116"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="117"/>
+      <c r="E40" s="116"/>
       <c r="H40" s="24" t="s">
         <v>202</v>
       </c>
@@ -4469,7 +4570,7 @@
       <c r="A41" t="s">
         <v>148</v>
       </c>
-      <c r="E41" s="117"/>
+      <c r="E41" s="116"/>
       <c r="H41" s="24" t="s">
         <v>203</v>
       </c>
@@ -4478,7 +4579,7 @@
       <c r="A42" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="117"/>
+      <c r="E42" s="116"/>
       <c r="H42" s="24" t="s">
         <v>204</v>
       </c>
@@ -4487,7 +4588,7 @@
       <c r="A43" t="s">
         <v>150</v>
       </c>
-      <c r="E43" s="117"/>
+      <c r="E43" s="116"/>
       <c r="H43" s="24" t="s">
         <v>205</v>
       </c>
@@ -4496,7 +4597,7 @@
       <c r="A44" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="117"/>
+      <c r="E44" s="116"/>
       <c r="H44" s="24" t="s">
         <v>206</v>
       </c>
@@ -4505,7 +4606,7 @@
       <c r="A45" t="s">
         <v>152</v>
       </c>
-      <c r="E45" s="117"/>
+      <c r="E45" s="116"/>
       <c r="H45" s="24" t="s">
         <v>207</v>
       </c>
@@ -4514,7 +4615,7 @@
       <c r="A46" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="117"/>
+      <c r="E46" s="116"/>
       <c r="H46" s="24" t="s">
         <v>208</v>
       </c>
@@ -4523,7 +4624,7 @@
       <c r="A47" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="117"/>
+      <c r="E47" s="116"/>
       <c r="H47" s="24" t="s">
         <v>209</v>
       </c>
@@ -4532,7 +4633,7 @@
       <c r="A48" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="117"/>
+      <c r="E48" s="116"/>
       <c r="H48" s="24" t="s">
         <v>210</v>
       </c>
@@ -4574,7 +4675,7 @@
       <c r="A52" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="117"/>
+      <c r="E52" s="116"/>
       <c r="H52" s="24" t="s">
         <v>211</v>
       </c>
@@ -4583,7 +4684,7 @@
       <c r="A53" t="s">
         <v>162</v>
       </c>
-      <c r="E53" s="117"/>
+      <c r="E53" s="116"/>
       <c r="H53" s="24" t="s">
         <v>212</v>
       </c>
@@ -4592,7 +4693,7 @@
       <c r="A54" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="117"/>
+      <c r="E54" s="116"/>
       <c r="H54" s="24" t="s">
         <v>213</v>
       </c>
@@ -4601,7 +4702,7 @@
       <c r="A55" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="E55" s="107"/>
+      <c r="E55" s="106"/>
       <c r="F55" s="102" t="s">
         <v>745</v>
       </c>
@@ -4613,7 +4714,7 @@
       <c r="A56" t="s">
         <v>165</v>
       </c>
-      <c r="E56" s="117"/>
+      <c r="E56" s="116"/>
       <c r="H56" s="20" t="s">
         <v>218</v>
       </c>
@@ -4661,7 +4762,7 @@
       <c r="B60" t="s">
         <v>170</v>
       </c>
-      <c r="E60" s="117"/>
+      <c r="E60" s="116"/>
       <c r="I60" s="18" t="s">
         <v>273</v>
       </c>
@@ -4670,7 +4771,7 @@
       <c r="B61" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="117"/>
+      <c r="E61" s="116"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -4682,7 +4783,7 @@
       <c r="D62" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="E62" s="19"/>
+      <c r="E62" s="116"/>
       <c r="G62" t="s">
         <v>91</v>
       </c>
@@ -4694,6 +4795,7 @@
       <c r="B63" s="31" t="s">
         <v>171</v>
       </c>
+      <c r="E63" s="116"/>
       <c r="H63" t="s">
         <v>197</v>
       </c>
@@ -4702,6 +4804,7 @@
       <c r="B64" t="s">
         <v>174</v>
       </c>
+      <c r="E64" s="116"/>
       <c r="H64" s="24" t="s">
         <v>240</v>
       </c>
@@ -4710,6 +4813,7 @@
       <c r="B65" t="s">
         <v>173</v>
       </c>
+      <c r="E65" s="116"/>
       <c r="H65" s="24" t="s">
         <v>242</v>
       </c>
@@ -4724,12 +4828,13 @@
       <c r="D66" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E66" s="19"/>
+      <c r="E66" s="116"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>174</v>
       </c>
+      <c r="E67" s="116"/>
       <c r="I67" s="18" t="s">
         <v>273</v>
       </c>
@@ -4738,13 +4843,14 @@
       <c r="B68" t="s">
         <v>182</v>
       </c>
+      <c r="E68" s="116"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B69" s="31" t="s">
         <v>183</v>
       </c>
       <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
+      <c r="E69" s="116"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -4756,7 +4862,7 @@
       <c r="D70" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E70" s="117"/>
+      <c r="E70" s="116"/>
       <c r="G70" t="s">
         <v>249</v>
       </c>
@@ -4768,7 +4874,7 @@
       <c r="B71" t="s">
         <v>184</v>
       </c>
-      <c r="E71" s="117"/>
+      <c r="E71" s="116"/>
       <c r="H71" s="24" t="s">
         <v>245</v>
       </c>
@@ -4777,7 +4883,7 @@
       <c r="B72" t="s">
         <v>188</v>
       </c>
-      <c r="E72" s="117"/>
+      <c r="E72" s="116"/>
       <c r="H72" s="24" t="s">
         <v>246</v>
       </c>
@@ -4786,7 +4892,7 @@
       <c r="B73" t="s">
         <v>170</v>
       </c>
-      <c r="E73" s="117"/>
+      <c r="E73" s="116"/>
       <c r="H73" s="24" t="s">
         <v>43</v>
       </c>
@@ -4795,7 +4901,7 @@
       <c r="B74" t="s">
         <v>185</v>
       </c>
-      <c r="E74" s="117"/>
+      <c r="E74" s="116"/>
       <c r="H74" s="24" t="s">
         <v>59</v>
       </c>
@@ -4804,16 +4910,19 @@
       <c r="B75" t="s">
         <v>186</v>
       </c>
-      <c r="E75" s="117"/>
+      <c r="E75" s="116"/>
       <c r="H75" s="24" t="s">
         <v>247</v>
+      </c>
+      <c r="I75" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>187</v>
       </c>
-      <c r="E76" s="117"/>
+      <c r="E76" s="116"/>
       <c r="H76" s="24" t="s">
         <v>248</v>
       </c>
@@ -4825,7 +4934,7 @@
       <c r="D77" s="39" t="s">
         <v>468</v>
       </c>
-      <c r="E77" s="117"/>
+      <c r="E77" s="116"/>
       <c r="F77" s="102" t="s">
         <v>743</v>
       </c>
@@ -4834,27 +4943,27 @@
       <c r="A78" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="B78" s="105" t="s">
+      <c r="B78" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="105"/>
-      <c r="D78" s="106" t="s">
+      <c r="C78" s="104"/>
+      <c r="D78" s="105" t="s">
         <v>469</v>
       </c>
-      <c r="E78" s="117"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="107"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106"/>
+      <c r="H78" s="106"/>
       <c r="I78" s="95" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="105"/>
-      <c r="B79" s="105" t="s">
+      <c r="A79" s="104"/>
+      <c r="B79" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="105"/>
+      <c r="C79" s="104"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34"/>
     </row>
@@ -4865,16 +4974,16 @@
       <c r="B80" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="108" t="s">
+      <c r="C80" s="107" t="s">
         <v>749</v>
       </c>
       <c r="D80" s="34" t="s">
         <v>746</v>
       </c>
       <c r="E80" s="34"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
+      <c r="F80" s="106"/>
+      <c r="G80" s="106"/>
+      <c r="H80" s="106"/>
       <c r="I80" s="95" t="s">
         <v>747</v>
       </c>
@@ -4921,9 +5030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4994,7 +5103,7 @@
       <c r="G2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="120" t="s">
         <v>112</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -5026,7 +5135,7 @@
       <c r="G3" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="117" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="24" t="s">
@@ -5058,7 +5167,7 @@
       <c r="G4" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="121" t="s">
         <v>113</v>
       </c>
       <c r="J4" s="24" t="s">
@@ -5084,7 +5193,7 @@
       <c r="F5" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="121" t="s">
         <v>114</v>
       </c>
       <c r="J5" s="24" t="s">
@@ -5107,7 +5216,7 @@
       <c r="E6" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="H6" s="148" t="s">
+      <c r="H6" s="118" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="24" t="s">
@@ -5127,7 +5236,7 @@
       <c r="E7" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="121" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5144,7 +5253,7 @@
       <c r="E8" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="H8" s="148" t="s">
+      <c r="H8" s="118" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5158,7 +5267,7 @@
       <c r="E9" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="H9" s="149" t="s">
+      <c r="H9" s="119" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5169,7 +5278,7 @@
       <c r="C10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="148" t="s">
+      <c r="H10" s="118" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5180,7 +5289,7 @@
       <c r="C11" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="120" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5188,7 +5297,7 @@
       <c r="A12" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="120" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5196,7 +5305,7 @@
       <c r="A13" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="148" t="s">
+      <c r="H13" s="118" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5204,7 +5313,7 @@
       <c r="A14" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="121" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5212,7 +5321,7 @@
       <c r="A15" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="H15" s="104" t="s">
+      <c r="H15" s="122" t="s">
         <v>744</v>
       </c>
     </row>
@@ -5383,7 +5492,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5521,46 +5630,46 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="128" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
       <c r="I16" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="128" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
       <c r="I17" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="128" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
       <c r="I18" t="s">
         <v>269</v>
       </c>
@@ -5571,16 +5680,16 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="128" t="s">
         <v>272</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5618,10 +5727,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="130" t="s">
         <v>705</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="131"/>
       <c r="C1" s="99" t="s">
         <v>250</v>
       </c>
@@ -5640,11 +5749,11 @@
       <c r="H1" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="129" t="s">
         <v>464</v>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -8158,10 +8267,10 @@
       <c r="A2" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="133" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="4"/>
@@ -8171,8 +8280,8 @@
       <c r="B3" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="129" t="s">
+      <c r="D3" s="132"/>
+      <c r="E3" s="134" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -8184,8 +8293,8 @@
       <c r="B4" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="129"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
@@ -8195,8 +8304,8 @@
       <c r="B5" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="129"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
@@ -8206,8 +8315,8 @@
       <c r="B6" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="129"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="134"/>
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
@@ -8217,8 +8326,8 @@
       <c r="B7" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="129"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="134"/>
       <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
@@ -8228,24 +8337,24 @@
       <c r="B8" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="129"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="134"/>
       <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="127"/>
-      <c r="E9" s="129"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="134"/>
       <c r="F9" s="50" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="127"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="50" t="s">
         <v>13</v>
       </c>
@@ -8255,8 +8364,8 @@
       <c r="B11" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
@@ -8266,18 +8375,18 @@
       <c r="B12" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="129"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="134"/>
       <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="43"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="128" t="s">
+      <c r="E13" s="133" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="4"/>
@@ -8287,8 +8396,8 @@
       <c r="B14" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128" t="s">
+      <c r="D14" s="132"/>
+      <c r="E14" s="133" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -8300,8 +8409,8 @@
       <c r="B15" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
       <c r="F15" s="7" t="s">
         <v>18</v>
       </c>
@@ -8311,8 +8420,8 @@
       <c r="B16" s="52" t="s">
         <v>377</v>
       </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
       <c r="F16" s="7" t="s">
         <v>19</v>
       </c>
@@ -8322,8 +8431,8 @@
       <c r="B17" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
@@ -8333,8 +8442,8 @@
       <c r="B18" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
       <c r="F18" s="7" t="s">
         <v>21</v>
       </c>
@@ -8344,8 +8453,8 @@
       <c r="B19" s="52" t="s">
         <v>380</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
       <c r="F19" s="7" t="s">
         <v>22</v>
       </c>
@@ -8353,8 +8462,8 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="52"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133"/>
       <c r="F20" s="50" t="s">
         <v>23</v>
       </c>
@@ -8362,8 +8471,8 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="52"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
       <c r="F21" s="50" t="s">
         <v>24</v>
       </c>
@@ -8373,8 +8482,8 @@
       <c r="B22" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
       <c r="F22" s="7" t="s">
         <v>25</v>
       </c>
@@ -8384,8 +8493,8 @@
       <c r="B23" s="52" t="s">
         <v>390</v>
       </c>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="133"/>
       <c r="F23" s="7" t="s">
         <v>26</v>
       </c>
@@ -8592,10 +8701,10 @@
       <c r="B37" s="80" t="s">
         <v>697</v>
       </c>
-      <c r="D37" s="130" t="s">
+      <c r="D37" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="130" t="s">
+      <c r="E37" s="135" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="81" t="s">
@@ -8610,8 +8719,8 @@
       <c r="B38" s="80" t="s">
         <v>699</v>
       </c>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="81" t="s">
         <v>44</v>
       </c>
@@ -8622,10 +8731,10 @@
       <c r="C39" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="D39" s="127" t="s">
+      <c r="D39" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="132" t="s">
+      <c r="E39" s="137" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -8640,8 +8749,8 @@
       <c r="C40" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="D40" s="127"/>
-      <c r="E40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="137"/>
       <c r="F40" s="5" t="s">
         <v>44</v>
       </c>
@@ -8652,8 +8761,8 @@
         <v>720</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="129"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="134"/>
       <c r="F41" s="8" t="s">
         <v>47</v>
       </c>
@@ -8663,8 +8772,8 @@
       <c r="C42" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="D42" s="127"/>
-      <c r="E42" s="129"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="134"/>
       <c r="F42" s="8" t="s">
         <v>48</v>
       </c>
@@ -8673,10 +8782,10 @@
       <c r="C43" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="D43" s="127" t="s">
+      <c r="D43" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="132" t="s">
+      <c r="E43" s="137" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="8" t="s">
@@ -8688,8 +8797,8 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" s="10"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="137"/>
       <c r="F44" s="8" t="s">
         <v>54</v>
       </c>
@@ -8699,8 +8808,8 @@
       <c r="B45" s="53" t="s">
         <v>707</v>
       </c>
-      <c r="D45" s="127"/>
-      <c r="E45" s="129"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="134"/>
       <c r="F45" s="8" t="s">
         <v>47</v>
       </c>
@@ -8714,10 +8823,10 @@
         <v>700</v>
       </c>
       <c r="C46" s="61"/>
-      <c r="D46" s="133" t="s">
+      <c r="D46" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="134" t="s">
+      <c r="E46" s="139" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="63" t="s">
@@ -8733,8 +8842,8 @@
         <v>702</v>
       </c>
       <c r="C47" s="61"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="134"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="139"/>
       <c r="F47" s="63" t="s">
         <v>47</v>
       </c>
@@ -8748,8 +8857,8 @@
         <v>703</v>
       </c>
       <c r="C48" s="61"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="134"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="139"/>
       <c r="F48" s="63" t="s">
         <v>48</v>
       </c>
@@ -8763,8 +8872,8 @@
         <v>704</v>
       </c>
       <c r="C49" s="61"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="134"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="139"/>
       <c r="F49" s="63" t="s">
         <v>53</v>
       </c>
@@ -8778,10 +8887,10 @@
       <c r="C50" s="56"/>
       <c r="D50" s="58"/>
       <c r="E50" s="59"/>
-      <c r="F50" s="137" t="s">
+      <c r="F50" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="138" t="s">
+      <c r="G50" s="143" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8793,8 +8902,8 @@
       <c r="C51" s="56"/>
       <c r="D51" s="58"/>
       <c r="E51" s="59"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="141"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="56"/>
@@ -8802,14 +8911,14 @@
         <v>323</v>
       </c>
       <c r="C52" s="56"/>
-      <c r="D52" s="140" t="s">
+      <c r="D52" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="141" t="s">
+      <c r="E52" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="141"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="56"/>
@@ -8817,9 +8926,9 @@
         <v>324</v>
       </c>
       <c r="C53" s="56"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="135" t="s">
+      <c r="D53" s="145"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="140" t="s">
         <v>54</v>
       </c>
       <c r="G53" s="60"/>
@@ -8830,9 +8939,9 @@
         <v>318</v>
       </c>
       <c r="C54" s="56"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="136"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="146"/>
+      <c r="F54" s="141"/>
       <c r="G54" s="60"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -8841,19 +8950,19 @@
         <v>321</v>
       </c>
       <c r="C55" s="56"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="136"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="146"/>
+      <c r="F55" s="141"/>
       <c r="G55" s="59"/>
     </row>
     <row r="56" spans="1:7" s="65" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C56" s="88" t="s">
         <v>716</v>
       </c>
-      <c r="D56" s="142" t="s">
+      <c r="D56" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="143" t="s">
+      <c r="E56" s="148" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -8868,8 +8977,8 @@
         <v>708</v>
       </c>
       <c r="C57" s="33"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="143"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="148"/>
       <c r="F57" s="68" t="s">
         <v>57</v>
       </c>
@@ -8880,8 +8989,8 @@
         <v>709</v>
       </c>
       <c r="C58" s="33"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="143"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="148"/>
       <c r="F58" s="69" t="s">
         <v>58</v>
       </c>
@@ -8892,8 +9001,8 @@
         <v>710</v>
       </c>
       <c r="C59" s="33"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="143"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="148"/>
       <c r="F59" s="70" t="s">
         <v>43</v>
       </c>
@@ -8904,8 +9013,8 @@
         <v>711</v>
       </c>
       <c r="C60" s="33"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="143"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="148"/>
       <c r="F60" s="69" t="s">
         <v>59</v>
       </c>
@@ -8916,8 +9025,8 @@
         <v>712</v>
       </c>
       <c r="C61" s="33"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="143"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="148"/>
       <c r="F61" s="69" t="s">
         <v>60</v>
       </c>
@@ -8928,8 +9037,8 @@
         <v>713</v>
       </c>
       <c r="C62" s="33"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="143"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="148"/>
       <c r="F62" s="69" t="s">
         <v>61</v>
       </c>
@@ -8985,10 +9094,10 @@
       <c r="B67" s="83" t="s">
         <v>317</v>
       </c>
-      <c r="D67" s="144" t="s">
+      <c r="D67" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="145" t="s">
+      <c r="E67" s="150" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="85" t="s">
@@ -9000,15 +9109,15 @@
       <c r="B68" s="83" t="s">
         <v>316</v>
       </c>
-      <c r="D68" s="144"/>
-      <c r="E68" s="145"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="150"/>
       <c r="F68" s="85" t="s">
         <v>44</v>
       </c>
       <c r="G68" s="86"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D69" s="139" t="s">
+      <c r="D69" s="144" t="s">
         <v>65</v>
       </c>
       <c r="E69" s="74" t="s">
@@ -9019,7 +9128,7 @@
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D70" s="139"/>
+      <c r="D70" s="144"/>
       <c r="E70" s="74" t="s">
         <v>28</v>
       </c>
@@ -9074,7 +9183,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9105,8 +9214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A139"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
